--- a/sudoku/docs/sudoku samples.xlsx
+++ b/sudoku/docs/sudoku samples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/exercises_in_programming_problem_solving.github/sudoku/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,9 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -154,6 +151,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +473,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,83 +483,103 @@
   <sheetData>
     <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="2">
+      <c r="C1" s="7">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -579,138 +599,138 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5">
-        <v>4</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="4">
-        <v>3</v>
-      </c>
-      <c r="U10" s="5"/>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="3">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7">
-        <v>4</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="R11" s="6">
-        <v>3</v>
-      </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="R11" s="5">
+        <v>3</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5">
-        <v>3</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5">
-        <v>3</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="5"/>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7">
-        <v>3</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="R13" s="6">
-        <v>4</v>
-      </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7">
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>4</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="5">
+        <v>4</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6">
         <v>1</v>
       </c>
     </row>

--- a/sudoku/docs/sudoku samples.xlsx
+++ b/sudoku/docs/sudoku samples.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,36 +514,20 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
@@ -552,36 +536,20 @@
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
